--- a/biology/Botanique/Buddleja_incana/Buddleja_incana.xlsx
+++ b/biology/Botanique/Buddleja_incana/Buddleja_incana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le quishuar (du quechua kiswar), Buddleja incana Ruiz &amp; Pav. est une espèce d'arbre appartenant à la famille des Scrofulariacées.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le quishuar est natif de la Bolivie, de la Colombie, de l'Équateur et du Pérou où il pousse dans la puna andine entre 3 500 et 3 800 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le quishuar est natif de la Bolivie, de la Colombie, de l'Équateur et du Pérou où il pousse dans la puna andine entre 3 500 et 3 800 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Incas utilisaient son bois, très dur, pour la sculpture.
 </t>
@@ -573,12 +589,14 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Buddleja bullata Kunth
 Buddleja incana var. pannulosa Diels
 Buddleja longifolia Kunth
-Buddleja rugosa Kunth[2]</t>
+Buddleja rugosa Kunth</t>
         </is>
       </c>
     </row>
